--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jky\Desktop\File\编程学习\Leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jky\Desktop\File\Coding\Leetcode\LeetCodeNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DCFD9D-5104-4B7B-BAEC-94A164971DB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEA1846-F296-4689-A97D-8C75BC1FEC35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>y?*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,46 @@
   </si>
   <si>
     <t>GitHub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打家劫舍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y+*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长上升子序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化的做法不会：贪心+二分查找</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,9 +147,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -392,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -404,10 +447,11 @@
     <col min="3" max="3" width="25" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -426,8 +470,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>121</v>
       </c>
@@ -442,6 +489,52 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>198</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>300</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44097</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jky\Desktop\File\Coding\Leetcode\LeetCodeNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEA1846-F296-4689-A97D-8C75BC1FEC35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D905BDA1-BC97-4156-9B3C-BA15F79A69D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>y?*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,22 @@
   </si>
   <si>
     <t>优化的做法不会：贪心+二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一和零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -537,6 +553,26 @@
         <v>44097</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>474</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44098</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jky\Desktop\File\Coding\Leetcode\LeetCodeNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D905BDA1-BC97-4156-9B3C-BA15F79A69D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B43F589-2559-4049-BBA2-0ED5C83C3CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>y?*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,25 @@
   </si>
   <si>
     <t>GitHub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非递增顺序的最小子序列</t>
+  </si>
+  <si>
+    <t>贪心算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细节问题没考虑全面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -573,6 +592,29 @@
         <v>44098</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1043</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44098</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jky\Desktop\File\Coding\Leetcode\LeetCodeNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B43F589-2559-4049-BBA2-0ED5C83C3CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4E1DDC-A325-448B-B13E-DB36545029A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>y?*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>y+*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最长上升子序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,6 +135,49 @@
   </si>
   <si>
     <t>细节问题没考虑全面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用最小花费爬楼梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长湍流子数组</t>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用滑动窗口进行操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,23 +509,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="19.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -500,16 +539,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>121</v>
       </c>
@@ -523,13 +565,16 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>44094</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>198</v>
       </c>
@@ -543,76 +588,137 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>44095</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>300</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>44097</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>474</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>44098</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1043</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="2">
+        <v>44098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>746</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="2">
-        <v>44098</v>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>978</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44102</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jky\Desktop\File\Coding\Leetcode\LeetCodeNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4E1DDC-A325-448B-B13E-DB36545029A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236D32AE-00BE-4D64-8D1B-56F15500EE66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>y?*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,38 +119,125 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>非递增顺序的最小子序列</t>
+  </si>
+  <si>
+    <t>贪心算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细节问题没考虑全面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用最小花费爬楼梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长湍流子数组</t>
+  </si>
+  <si>
+    <t>可以用滑动窗口进行操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>非递增顺序的最小子序列</t>
+    <t>玩筹码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贪心算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GitHub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>细节问题没考虑全面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用最小花费爬楼梯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>难度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简单</t>
+    <t>基本思想是对的，超内存了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小覆盖子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串的排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -158,26 +245,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GitHub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最长湍流子数组</t>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以用滑动窗口进行操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y*</t>
+    <t>各种骚操作错了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -539,7 +611,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -565,7 +637,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -588,7 +660,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
@@ -602,7 +674,7 @@
         <v>300</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -611,7 +683,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
@@ -637,10 +709,13 @@
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H5" s="2">
         <v>44098</v>
@@ -651,22 +726,22 @@
         <v>1043</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="H6" s="2">
         <v>44098</v>
@@ -677,19 +752,19 @@
         <v>746</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="2">
         <v>44102</v>
@@ -700,25 +775,100 @@
         <v>978</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="H8" s="2">
         <v>44102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1217</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>76</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>567</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="2">
+        <v>44108</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jky\Desktop\File\Coding\Leetcode\LeetCodeNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236D32AE-00BE-4D64-8D1B-56F15500EE66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C8DE4A-5B6D-4EC5-9FCD-CA2525B129F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
   <si>
     <t>y?*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,7 +249,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>各种骚操作错了</t>
+    <t>找到字符串中所有字母异位词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有优化的空间，但是做错了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无重复字符的最长子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环形链表II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二种做法才是经典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉搜索树的最小绝对差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还需复习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,23 +665,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="25" style="1" customWidth="1"/>
-    <col min="4" max="5" width="19.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -605,71 +691,77 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2">
+      <c r="J2" s="2">
         <v>44094</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>198</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2">
+      <c r="J3" s="2">
         <v>44095</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>300</v>
       </c>
@@ -677,198 +769,299 @@
         <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>44097</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>474</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>44098</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1043</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="2">
         <v>44098</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>746</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44102</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>978</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="2">
+      <c r="J8" s="2">
         <v>44102</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1217</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="2">
+      <c r="J9" s="2">
         <v>44105</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>76</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="2">
+      <c r="J10" s="2">
         <v>44107</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>567</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="2">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>438</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="2">
+      <c r="F12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="2">
         <v>44108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="2">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>142</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="2">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>530</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="2">
+        <v>44116</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jky\Desktop\File\Coding\Leetcode\LeetCodeNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C8DE4A-5B6D-4EC5-9FCD-CA2525B129F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94300B84-0551-45AF-B286-B6539CE53E35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="109">
   <si>
     <t>y?*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,13 +335,106 @@
   <si>
     <t>还需复习</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>还需复习</t>
+  </si>
+  <si>
+    <t>零钱兑换</t>
+  </si>
+  <si>
+    <t>动态规划</t>
+  </si>
+  <si>
+    <t>中等</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>LeetCode搜索回溯</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>较熟练</t>
+  </si>
+  <si>
+    <t>全排列</t>
+  </si>
+  <si>
+    <t>回溯算法</t>
+  </si>
+  <si>
+    <t>删除链表的倒数第N个节点</t>
+  </si>
+  <si>
+    <t>每日一题</t>
+  </si>
+  <si>
+    <t>未看题解</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>比较含退格的字符串</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>进阶解法双指针*</t>
+  </si>
+  <si>
+    <t>N皇后</t>
+  </si>
+  <si>
+    <t>划分字母区间</t>
+  </si>
+  <si>
+    <t>官方算法O(n),很简洁</t>
+  </si>
+  <si>
+    <t>回文链表</t>
+  </si>
+  <si>
+    <t>简单</t>
+  </si>
+  <si>
+    <t>双指针、递归、快慢指针*,看题解</t>
+  </si>
+  <si>
+    <t>有多少小于当前数字的数字</t>
+  </si>
+  <si>
+    <t>看题解</t>
+  </si>
+  <si>
+    <t>二进制手表</t>
+  </si>
+  <si>
+    <t>贼慢</t>
+  </si>
+  <si>
+    <t>数组中的最长山脉</t>
+  </si>
+  <si>
+    <t>动规</t>
+  </si>
+  <si>
+    <t>官方题解+笔记</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +446,13 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -377,13 +477,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1064,6 +1170,278 @@
         <v>44116</v>
       </c>
     </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>322</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="2">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>844</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" s="2">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>763</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="2">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>234</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="2">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>1365</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" s="2">
+        <v>44130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>401</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" s="2">
+        <v>44130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>845</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" s="2">
+        <v>44131</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
